--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_06_beg.xlsx
@@ -884,7 +884,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceylon"]   You're just like my father. Trying to dictate everything for me because it's "for my own good," but I don't think so!
+    <t xml:space="preserve">[name="Ceylon"]   You're just like my father. Trying to dictate everything for me because it's 'for my own good,' but I don't think so!
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceylon"]   But if you ever say "Ceylon, I need your help," I'll always be there for you! No matter what you have to say, I'll always lend you my ear!
+    <t xml:space="preserve">[name="Ceylon"]   But if you ever say 'Ceylon, I need your help,' I'll always be there for you! No matter what you have to say, I'll always lend you my ear!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_06_beg.xlsx
@@ -760,7 +760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="We’ve already come this far. There’s only one thing to do!;……;Letting countless innocents suffer violates our credo.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="We've already come this far. There's only one thing to do!;......;Letting countless innocents suffer violates our credo.",values="1;2;3")]
 </t>
   </si>
   <si>
